--- a/plan/Papa Jump计划.xlsx
+++ b/plan/Papa Jump计划.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -137,8 +137,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -227,74 +227,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -303,33 +243,39 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
+      <xdr:colOff>509589</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>601622</xdr:colOff>
+      <xdr:colOff>587332</xdr:colOff>
       <xdr:row>51</xdr:row>
       <xdr:rowOff>96361</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1" descr=".png"/>
+        <xdr:cNvPr id="2" name="图片 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2552700" y="1000125"/>
-          <a:ext cx="11079122" cy="7954486"/>
+          <a:off x="2566989" y="1000125"/>
+          <a:ext cx="11050543" cy="7954486"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -730,7 +676,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -765,7 +711,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -797,9 +743,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -831,6 +778,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1006,16 +954,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="22.5">
+    <row r="1" spans="1:15" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1034,97 +982,97 @@
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -1148,21 +1096,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O56"/>
   <sheetViews>
     <sheetView topLeftCell="A55" workbookViewId="0">
       <selection activeCell="P34" sqref="P34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="27">
+    <row r="1" spans="1:15" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>15</v>
       </c>
@@ -1181,7 +1129,7 @@
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -1213,17 +1161,17 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>11</v>
       </c>
@@ -1245,12 +1193,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1259,14 +1207,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1274,12 +1222,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1287,14 +1235,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1302,14 +1250,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/plan/Papa Jump计划.xlsx
+++ b/plan/Papa Jump计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="总则" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
   <si>
     <t>Papa Jump 游戏规划 总档</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -131,6 +131,58 @@
   </si>
   <si>
     <t>游戏UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳板类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通跳板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹簧跳板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一次性跳板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破碎后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无碰撞跳板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>草皮跳板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机收缩跳板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指:不定期的出现,消失的跳板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>颠倒跳板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碰必死跳板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>具体见文档</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -668,6 +720,315 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>104676</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>9481</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="857250"/>
+          <a:ext cx="790476" cy="352381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>228487</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>104719</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1381125" y="3257550"/>
+          <a:ext cx="904762" cy="447619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>28487</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>47567</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1381125" y="1466850"/>
+          <a:ext cx="704762" cy="466667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>657143</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>19005</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="2228850"/>
+          <a:ext cx="657143" cy="361905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>542926</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>619126</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>51707</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2600326" y="2181225"/>
+          <a:ext cx="762000" cy="442232"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>600000</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>114264</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="2743200"/>
+          <a:ext cx="600000" cy="285714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>57061</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>114246</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1400175" y="5000625"/>
+          <a:ext cx="714286" cy="428571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>495152</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>85671</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="4286250"/>
+          <a:ext cx="1180952" cy="428571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
@@ -957,7 +1318,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -1236,16 +1597,102 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:15" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="D14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B28" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:O1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
